--- a/Datos/Anuario2024/130205_ActividadesCulturalesUV.xlsx
+++ b/Datos/Anuario2024/130205_ActividadesCulturalesUV.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="124" r:id="rId1"/>
+    <sheet name="1" sheetId="68" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -49,69 +55,139 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+  <si>
+    <t>Conferencias, mesas redondas, congresos, jornadas</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Exposiciones</t>
+  </si>
+  <si>
+    <t>Proyecciones cinematográficas</t>
+  </si>
+  <si>
+    <t>Fuente: Vicerrectorado de Cultura y Jardín Botánico. Universitat de València.</t>
+  </si>
+  <si>
+    <t>Conciertos de música</t>
+  </si>
+  <si>
+    <t>Representaciones teatrales</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Jardín Botánico</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Colegio Mayor Rector Peset</t>
+  </si>
+  <si>
+    <t>La Nau</t>
+  </si>
+  <si>
+    <t>Cursos y talleres</t>
+  </si>
+  <si>
+    <t>Visitas Muralla Árabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representaciones teatrales </t>
+  </si>
+  <si>
+    <t>Conferencias, mesas redondas, congresos</t>
+  </si>
+  <si>
+    <t>Presentación de libros, revistas…</t>
+  </si>
+  <si>
+    <t>Presentaciones de libros, revistas…</t>
+  </si>
+  <si>
+    <t>Presentación de libros, revistas...</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES CULTURALES DE LA UNIVERSIDAD DE VALÈNCIA</t>
+  </si>
+  <si>
+    <t>Actividades colegiales</t>
+  </si>
+  <si>
+    <t>1. Universitat de València. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,47 +217,47 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,6 +265,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -257,13 +334,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -504,8 +599,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5006,8 +5101,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5707,443 +5802,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>ACTIVIDADES CULTURALES DE LA UNIVERSIDAD DE VALÈNCIA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja19">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="87.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.5703125" customWidth="1" style="1" min="2" max="3"/>
+    <col min="1" max="1" width="87.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>1. Universitat de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Actividades</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>La Nau</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="12" t="n"/>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Exposiciones</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="18">
         <v>86942</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Conciertos de música</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>41</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="3">
         <v>8681</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Conferencias, mesas redondas, congresos</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13">
         <v>162</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="13">
         <v>10857</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Presentación de libros, revistas…</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="3">
         <v>1505</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>Proyecciones cinematográficas</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
         <v>30</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="6">
         <v>980</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>Cursos</t>
-        </is>
-      </c>
-      <c r="B10" s="12" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
         <v>26</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="3">
         <v>417</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="1">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Representaciones teatrales </t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
         <v>56</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="6">
         <v>3903</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="1">
-      <c r="A12" s="10" t="n"/>
-      <c r="B12" s="12" t="n"/>
-      <c r="C12" s="12" t="n"/>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="1">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>Actividades</t>
-        </is>
-      </c>
-      <c r="C13" s="9" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="1">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Jardín Botánico</t>
-        </is>
-      </c>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="12" t="n"/>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Conciertos de música</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="1">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>Conferencias, mesas redondas, congresos, jornadas</t>
-        </is>
-      </c>
-      <c r="B16" s="12" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>8356</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="1">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>Cursos y talleres</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="14">
         <v>164</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="1">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>Exposiciones</t>
-        </is>
-      </c>
-      <c r="B18" s="12" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12">
         <v>12</v>
       </c>
-      <c r="C18" s="19" t="n">
+      <c r="C18" s="19">
         <v>106013</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="1">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>Presentación de libros, revistas...</t>
-        </is>
-      </c>
-      <c r="B19" s="15" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
         <v>4</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="15">
         <v>160</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="1">
-      <c r="A20" s="10" t="inlineStr">
-        <is>
-          <t>Representaciones teatrales</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="19" t="n">
+      <c r="C20" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="1">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="15" t="n"/>
-      <c r="C21" s="15" t="n"/>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1" s="1">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>Actividades</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="1">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>Colegio Mayor Rector Peset</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="n"/>
-      <c r="C23" s="2" t="n"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="1">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>Conciertos de música</t>
-        </is>
-      </c>
-      <c r="B24" s="13" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
         <v>15</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="6">
         <v>987</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="1">
-      <c r="A25" s="10" t="inlineStr">
-        <is>
-          <t>Conferencias, mesas redondas, congresos, jornadas</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12">
         <v>68</v>
       </c>
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="12">
         <v>3421</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="1">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>Proyecciones cinematográficas</t>
-        </is>
-      </c>
-      <c r="B26" s="13" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6">
         <v>27</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="6">
         <v>1378</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="1">
-      <c r="A27" s="10" t="inlineStr">
-        <is>
-          <t>Exposiciones</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12">
         <v>7</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="12">
         <v>2686</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="1">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>Visitas Muralla Árabe</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
         <v>11</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="6">
         <v>609</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="1">
-      <c r="A29" s="10" t="inlineStr">
-        <is>
-          <t>Presentaciones de libros, revistas…</t>
-        </is>
-      </c>
-      <c r="B29" s="12" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="12">
         <v>657</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="1">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>Cursos</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="n">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
         <v>30</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="6">
         <v>767</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="1">
-      <c r="A31" s="10" t="inlineStr">
-        <is>
-          <t>Actividades colegiales</t>
-        </is>
-      </c>
-      <c r="B31" s="12" t="n">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="12">
         <v>12</v>
       </c>
-      <c r="C31" s="12" t="n">
+      <c r="C31" s="12">
         <v>409</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="1">
-      <c r="A32" s="11" t="n"/>
-      <c r="B32" s="15" t="n"/>
-      <c r="C32" s="15" t="n"/>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Vicerrectorado de Cultura y Jardín Botánico. Universitat de València.</t>
-        </is>
-      </c>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="89"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>